--- a/Database/Users/Data.xlsx
+++ b/Database/Users/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soroush\Desktop\QuizBot-main\Database\Users\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Persons\Soroosh\QuizBot\Database\Users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2562E3-9859-48C6-8E58-D9985456E582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B1CB0D-0D74-4045-BB1C-6639A6212285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="3540" windowWidth="14400" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -36,32 +36,38 @@
     <t>Password</t>
   </si>
   <si>
-    <t>u1</t>
-  </si>
-  <si>
-    <t>u2</t>
-  </si>
-  <si>
     <t>p1</t>
   </si>
   <si>
     <t>p2</t>
   </si>
   <si>
-    <t>u3</t>
-  </si>
-  <si>
     <t>p3</t>
+  </si>
+  <si>
+    <t>کاربر 1</t>
+  </si>
+  <si>
+    <t>کاربر 2</t>
+  </si>
+  <si>
+    <t>کاربر 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -372,17 +378,17 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,40 +399,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>